--- a/Code/Results/Cases/Case_7_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032933621433773</v>
+        <v>1.032933621433776</v>
       </c>
       <c r="D2">
-        <v>1.04767270055841</v>
+        <v>1.047672700558413</v>
       </c>
       <c r="E2">
-        <v>1.043933795246357</v>
+        <v>1.043933795246359</v>
       </c>
       <c r="F2">
-        <v>1.054241796349474</v>
+        <v>1.054241796349476</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055344836200568</v>
+        <v>1.055344836200569</v>
       </c>
       <c r="J2">
-        <v>1.054172014231852</v>
+        <v>1.054172014231855</v>
       </c>
       <c r="K2">
-        <v>1.058505551265169</v>
+        <v>1.058505551265171</v>
       </c>
       <c r="L2">
-        <v>1.05481320151224</v>
+        <v>1.054813201512242</v>
       </c>
       <c r="M2">
-        <v>1.064993845320608</v>
+        <v>1.06499384532061</v>
       </c>
       <c r="N2">
-        <v>1.055669059407282</v>
+        <v>1.055669059407285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,34 +462,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040859777034002</v>
+        <v>1.040859777034003</v>
       </c>
       <c r="D3">
-        <v>1.053868219848814</v>
+        <v>1.053868219848815</v>
       </c>
       <c r="E3">
-        <v>1.050647747238581</v>
+        <v>1.050647747238582</v>
       </c>
       <c r="F3">
-        <v>1.060993003977939</v>
+        <v>1.06099300397794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057721535711759</v>
+        <v>1.05772153571176</v>
       </c>
       <c r="J3">
-        <v>1.060295317429939</v>
+        <v>1.06029531742994</v>
       </c>
       <c r="K3">
-        <v>1.063855295516765</v>
+        <v>1.063855295516766</v>
       </c>
       <c r="L3">
         <v>1.060671136391117</v>
       </c>
       <c r="M3">
-        <v>1.070900704970133</v>
+        <v>1.070900704970134</v>
       </c>
       <c r="N3">
         <v>1.061801058398263</v>
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045836948571931</v>
+        <v>1.045836948571929</v>
       </c>
       <c r="D4">
-        <v>1.05776047113296</v>
+        <v>1.057760471132958</v>
       </c>
       <c r="E4">
-        <v>1.054868908838007</v>
+        <v>1.054868908838004</v>
       </c>
       <c r="F4">
-        <v>1.065237314255788</v>
+        <v>1.065237314255785</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.05920140461304</v>
       </c>
       <c r="J4">
-        <v>1.064136621757924</v>
+        <v>1.064136621757922</v>
       </c>
       <c r="K4">
-        <v>1.067208389499249</v>
+        <v>1.067208389499247</v>
       </c>
       <c r="L4">
-        <v>1.064347318623637</v>
+        <v>1.064347318623635</v>
       </c>
       <c r="M4">
-        <v>1.074607326144813</v>
+        <v>1.07460732614481</v>
       </c>
       <c r="N4">
-        <v>1.065647817818997</v>
+        <v>1.065647817818994</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,34 +547,34 @@
         <v>1.047895130898286</v>
       </c>
       <c r="D5">
-        <v>1.059370337464291</v>
+        <v>1.059370337464292</v>
       </c>
       <c r="E5">
         <v>1.056615609361161</v>
       </c>
       <c r="F5">
-        <v>1.066993517668222</v>
+        <v>1.066993517668223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059810286680691</v>
+        <v>1.059810286680692</v>
       </c>
       <c r="J5">
-        <v>1.06572411889632</v>
+        <v>1.065724118896321</v>
       </c>
       <c r="K5">
-        <v>1.068593393202607</v>
+        <v>1.068593393202608</v>
       </c>
       <c r="L5">
-        <v>1.065866885661754</v>
+        <v>1.065866885661755</v>
       </c>
       <c r="M5">
-        <v>1.076139402476084</v>
+        <v>1.076139402476086</v>
       </c>
       <c r="N5">
-        <v>1.067237569385418</v>
+        <v>1.067237569385419</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04823875895367</v>
+        <v>1.048238758953672</v>
       </c>
       <c r="D6">
-        <v>1.059639132019912</v>
+        <v>1.059639132019914</v>
       </c>
       <c r="E6">
-        <v>1.056907298087096</v>
+        <v>1.056907298087098</v>
       </c>
       <c r="F6">
-        <v>1.067286788574124</v>
+        <v>1.067286788574126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059911760849044</v>
+        <v>1.059911760849045</v>
       </c>
       <c r="J6">
-        <v>1.065989103388557</v>
+        <v>1.065989103388559</v>
       </c>
       <c r="K6">
-        <v>1.068824533859642</v>
+        <v>1.068824533859644</v>
       </c>
       <c r="L6">
-        <v>1.066120549128911</v>
+        <v>1.066120549128913</v>
       </c>
       <c r="M6">
-        <v>1.076395149593117</v>
+        <v>1.076395149593119</v>
       </c>
       <c r="N6">
-        <v>1.067502930186027</v>
+        <v>1.06750293018603</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,10 +629,10 @@
         <v>1.045864581963321</v>
       </c>
       <c r="D7">
-        <v>1.057782084237698</v>
+        <v>1.057782084237697</v>
       </c>
       <c r="E7">
-        <v>1.054892355823353</v>
+        <v>1.054892355823352</v>
       </c>
       <c r="F7">
         <v>1.065260889117313</v>
@@ -644,19 +644,19 @@
         <v>1.05920959180763</v>
       </c>
       <c r="J7">
-        <v>1.064157939628492</v>
+        <v>1.064157939628491</v>
       </c>
       <c r="K7">
         <v>1.067226991091139</v>
       </c>
       <c r="L7">
-        <v>1.064367723078383</v>
+        <v>1.064367723078381</v>
       </c>
       <c r="M7">
-        <v>1.074627898872095</v>
+        <v>1.074627898872094</v>
       </c>
       <c r="N7">
-        <v>1.065669165963386</v>
+        <v>1.065669165963385</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035644991232003</v>
+        <v>1.035644991232004</v>
       </c>
       <c r="D8">
-        <v>1.049791600916814</v>
+        <v>1.049791600916815</v>
       </c>
       <c r="E8">
         <v>1.046229339573812</v>
       </c>
       <c r="F8">
-        <v>1.05655013007499</v>
+        <v>1.056550130074991</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016372548750518</v>
+        <v>1.016372548750517</v>
       </c>
       <c r="D9">
-        <v>1.034743464288719</v>
+        <v>1.034743464288718</v>
       </c>
       <c r="E9">
-        <v>1.029939524236979</v>
+        <v>1.029939524236978</v>
       </c>
       <c r="F9">
-        <v>1.040168836521937</v>
+        <v>1.040168836521936</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.050311600312201</v>
       </c>
       <c r="J9">
-        <v>1.041360108455403</v>
+        <v>1.041360108455402</v>
       </c>
       <c r="K9">
         <v>1.047296925817855</v>
       </c>
       <c r="L9">
-        <v>1.042564836132991</v>
+        <v>1.04256483613299</v>
       </c>
       <c r="M9">
         <v>1.052642166338952</v>
       </c>
       <c r="N9">
-        <v>1.042838959255084</v>
+        <v>1.042838959255082</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -767,7 +767,7 @@
         <v>1.046042570502348</v>
       </c>
       <c r="J10">
-        <v>1.030625232028667</v>
+        <v>1.030625232028668</v>
       </c>
       <c r="K10">
         <v>1.037893372019747</v>
@@ -779,7 +779,7 @@
         <v>1.042301117328797</v>
       </c>
       <c r="N10">
-        <v>1.032088838072514</v>
+        <v>1.032088838072515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,13 +790,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9962251034100342</v>
+        <v>0.9962251034100338</v>
       </c>
       <c r="D11">
         <v>1.019053821797453</v>
       </c>
       <c r="E11">
-        <v>1.012980412526191</v>
+        <v>1.01298041252619</v>
       </c>
       <c r="F11">
         <v>1.023114130204134</v>
@@ -814,7 +814,7 @@
         <v>1.033625139510123</v>
       </c>
       <c r="L11">
-        <v>1.027661619789649</v>
+        <v>1.027661619789648</v>
       </c>
       <c r="M11">
         <v>1.037612926787032</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9938433888289097</v>
+        <v>0.993843388828908</v>
       </c>
       <c r="D12">
-        <v>1.017202565690407</v>
+        <v>1.017202565690406</v>
       </c>
       <c r="E12">
-        <v>1.010980615516464</v>
+        <v>1.010980615516462</v>
       </c>
       <c r="F12">
-        <v>1.021103136254783</v>
+        <v>1.021103136254782</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043352708224854</v>
+        <v>1.043352708224853</v>
       </c>
       <c r="J12">
-        <v>1.023910612483179</v>
+        <v>1.023910612483178</v>
       </c>
       <c r="K12">
-        <v>1.032007449630419</v>
+        <v>1.032007449630418</v>
       </c>
       <c r="L12">
-        <v>1.025900425161208</v>
+        <v>1.025900425161206</v>
       </c>
       <c r="M12">
-        <v>1.035836901765503</v>
+        <v>1.035836901765502</v>
       </c>
       <c r="N12">
-        <v>1.025364682997094</v>
+        <v>1.025364682997093</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943564723200807</v>
+        <v>0.9943564723200832</v>
       </c>
       <c r="D13">
-        <v>1.017601306486494</v>
+        <v>1.017601306486496</v>
       </c>
       <c r="E13">
-        <v>1.011411331868564</v>
+        <v>1.011411331868567</v>
       </c>
       <c r="F13">
-        <v>1.021536262004928</v>
+        <v>1.021536262004931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043512318771721</v>
+        <v>1.043512318771722</v>
       </c>
       <c r="J13">
-        <v>1.024308109294116</v>
+        <v>1.024308109294118</v>
       </c>
       <c r="K13">
-        <v>1.032355958817942</v>
+        <v>1.032355958817944</v>
       </c>
       <c r="L13">
-        <v>1.026279815212572</v>
+        <v>1.026279815212574</v>
       </c>
       <c r="M13">
-        <v>1.036219484630371</v>
+        <v>1.036219484630374</v>
       </c>
       <c r="N13">
-        <v>1.025762744299096</v>
+        <v>1.025762744299098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9960292137633926</v>
+        <v>0.9960292137633945</v>
       </c>
       <c r="D14">
-        <v>1.018901530723505</v>
+        <v>1.018901530723506</v>
       </c>
       <c r="E14">
-        <v>1.012815893524245</v>
+        <v>1.012815893524247</v>
       </c>
       <c r="F14">
-        <v>1.022948689099377</v>
+        <v>1.022948689099379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044032358420815</v>
+        <v>1.044032358420816</v>
       </c>
       <c r="J14">
-        <v>1.025604011816526</v>
+        <v>1.025604011816528</v>
       </c>
       <c r="K14">
-        <v>1.03349209656975</v>
+        <v>1.033492096569752</v>
       </c>
       <c r="L14">
-        <v>1.027516758771611</v>
+        <v>1.027516758771613</v>
       </c>
       <c r="M14">
-        <v>1.037466845124794</v>
+        <v>1.037466845124796</v>
       </c>
       <c r="N14">
-        <v>1.02706048715173</v>
+        <v>1.027060487151732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,7 +954,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970534922185971</v>
+        <v>0.9970534922185968</v>
       </c>
       <c r="D15">
         <v>1.019697897725814</v>
@@ -978,10 +978,10 @@
         <v>1.034187742202434</v>
       </c>
       <c r="L15">
-        <v>1.028274229906944</v>
+        <v>1.028274229906943</v>
       </c>
       <c r="M15">
-        <v>1.038230700479285</v>
+        <v>1.038230700479284</v>
       </c>
       <c r="N15">
         <v>1.027855133124661</v>
@@ -995,7 +995,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002921720271661</v>
+        <v>1.00292172027166</v>
       </c>
       <c r="D16">
         <v>1.024263135386232</v>
@@ -1013,19 +1013,19 @@
         <v>1.046169710967243</v>
       </c>
       <c r="J16">
-        <v>1.030943479256617</v>
+        <v>1.030943479256616</v>
       </c>
       <c r="K16">
-        <v>1.038172274171097</v>
+        <v>1.038172274171096</v>
       </c>
       <c r="L16">
         <v>1.032614461114697</v>
       </c>
       <c r="M16">
-        <v>1.042607575784906</v>
+        <v>1.042607575784905</v>
       </c>
       <c r="N16">
-        <v>1.032407537248031</v>
+        <v>1.03240753724803</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006523930795262</v>
+        <v>1.00652393079526</v>
       </c>
       <c r="D17">
-        <v>1.027067721026764</v>
+        <v>1.027067721026761</v>
       </c>
       <c r="E17">
-        <v>1.021640132992174</v>
+        <v>1.021640132992172</v>
       </c>
       <c r="F17">
-        <v>1.031822573941264</v>
+        <v>1.031822573941262</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.047282965037379</v>
       </c>
       <c r="J17">
-        <v>1.033733692053416</v>
+        <v>1.033733692053413</v>
       </c>
       <c r="K17">
-        <v>1.040617235477365</v>
+        <v>1.040617235477363</v>
       </c>
       <c r="L17">
-        <v>1.035279080828446</v>
+        <v>1.035279080828444</v>
       </c>
       <c r="M17">
-        <v>1.045294732637363</v>
+        <v>1.045294732637361</v>
       </c>
       <c r="N17">
-        <v>1.035201712467043</v>
+        <v>1.035201712467041</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1101,7 +1101,7 @@
         <v>1.04202459258109</v>
       </c>
       <c r="L18">
-        <v>1.03681338611788</v>
+        <v>1.036813386117881</v>
       </c>
       <c r="M18">
         <v>1.046842023598393</v>
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009300733328425</v>
+        <v>1.009300733328427</v>
       </c>
       <c r="D19">
-        <v>1.029230754787317</v>
+        <v>1.029230754787319</v>
       </c>
       <c r="E19">
-        <v>1.02397836007364</v>
+        <v>1.023978360073641</v>
       </c>
       <c r="F19">
-        <v>1.034173999959753</v>
+        <v>1.034173999959755</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048139202756446</v>
+        <v>1.048139202756447</v>
       </c>
       <c r="J19">
-        <v>1.035884315545033</v>
+        <v>1.035884315545035</v>
       </c>
       <c r="K19">
-        <v>1.042501363189972</v>
+        <v>1.042501363189973</v>
       </c>
       <c r="L19">
-        <v>1.03733325005442</v>
+        <v>1.037333250054421</v>
       </c>
       <c r="M19">
         <v>1.047366288373754</v>
       </c>
       <c r="N19">
-        <v>1.037355390090699</v>
+        <v>1.037355390090701</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006140273999176</v>
+        <v>1.006140273999175</v>
       </c>
       <c r="D20">
-        <v>1.026768938984555</v>
+        <v>1.026768938984554</v>
       </c>
       <c r="E20">
         <v>1.021317182910934</v>
       </c>
       <c r="F20">
-        <v>1.03149780179101</v>
+        <v>1.031497801791009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047164528523397</v>
+        <v>1.047164528523396</v>
       </c>
       <c r="J20">
-        <v>1.033436533271746</v>
+        <v>1.033436533271745</v>
       </c>
       <c r="K20">
-        <v>1.040356872221603</v>
+        <v>1.040356872221602</v>
       </c>
       <c r="L20">
         <v>1.034995273403005</v>
       </c>
       <c r="M20">
-        <v>1.045008523767108</v>
+        <v>1.045008523767107</v>
       </c>
       <c r="N20">
-        <v>1.034904131685819</v>
+        <v>1.034904131685818</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9955379651417628</v>
+        <v>0.9955379651417647</v>
       </c>
       <c r="D21">
-        <v>1.018519641504231</v>
+        <v>1.018519641504233</v>
       </c>
       <c r="E21">
-        <v>1.012403347947819</v>
+        <v>1.012403347947821</v>
       </c>
       <c r="F21">
-        <v>1.022533832001074</v>
+        <v>1.022533832001076</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.043879684959652</v>
       </c>
       <c r="J21">
-        <v>1.025223434092577</v>
+        <v>1.025223434092579</v>
       </c>
       <c r="K21">
-        <v>1.033158447469973</v>
+        <v>1.033158447469975</v>
       </c>
       <c r="L21">
-        <v>1.02715348456341</v>
+        <v>1.027153484563412</v>
       </c>
       <c r="M21">
-        <v>1.037100510481733</v>
+        <v>1.037100510481735</v>
       </c>
       <c r="N21">
-        <v>1.02667936896376</v>
+        <v>1.026679368963762</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885979574755103</v>
+        <v>0.9885979574755094</v>
       </c>
       <c r="D22">
-        <v>1.013128306632521</v>
+        <v>1.01312830663252</v>
       </c>
       <c r="E22">
-        <v>1.006580183644327</v>
+        <v>1.006580183644326</v>
       </c>
       <c r="F22">
-        <v>1.01667816668418</v>
+        <v>1.016678166684179</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,16 +1259,16 @@
         <v>1.041718451493082</v>
       </c>
       <c r="J22">
-        <v>1.0198468853006</v>
+        <v>1.019846885300599</v>
       </c>
       <c r="K22">
         <v>1.028444099620988</v>
       </c>
       <c r="L22">
-        <v>1.022022403230124</v>
+        <v>1.022022403230123</v>
       </c>
       <c r="M22">
-        <v>1.031926311450888</v>
+        <v>1.031926311450887</v>
       </c>
       <c r="N22">
         <v>1.021295184855799</v>
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9923045467023933</v>
+        <v>0.9923045467023973</v>
       </c>
       <c r="D23">
-        <v>1.01600688823861</v>
+        <v>1.016006888238614</v>
       </c>
       <c r="E23">
-        <v>1.009689114214855</v>
+        <v>1.009689114214859</v>
       </c>
       <c r="F23">
-        <v>1.019804418098787</v>
+        <v>1.019804418098791</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042873735373368</v>
+        <v>1.04287373537337</v>
       </c>
       <c r="J23">
-        <v>1.022718436862879</v>
+        <v>1.022718436862883</v>
       </c>
       <c r="K23">
-        <v>1.030962150455612</v>
+        <v>1.030962150455615</v>
       </c>
       <c r="L23">
-        <v>1.024762617612417</v>
+        <v>1.024762617612421</v>
       </c>
       <c r="M23">
-        <v>1.034689525501424</v>
+        <v>1.034689525501428</v>
       </c>
       <c r="N23">
-        <v>1.024170814350669</v>
+        <v>1.024170814350672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,10 +1323,10 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006313715243621</v>
+        <v>1.00631371524362</v>
       </c>
       <c r="D24">
-        <v>1.026904008324288</v>
+        <v>1.026904008324287</v>
       </c>
       <c r="E24">
         <v>1.021463176881352</v>
@@ -1344,16 +1344,16 @@
         <v>1.033570871517479</v>
       </c>
       <c r="K24">
-        <v>1.040474576900156</v>
+        <v>1.040474576900155</v>
       </c>
       <c r="L24">
-        <v>1.035123575106162</v>
+        <v>1.035123575106161</v>
       </c>
       <c r="M24">
-        <v>1.0451379110734</v>
+        <v>1.045137911073399</v>
       </c>
       <c r="N24">
-        <v>1.03503866070727</v>
+        <v>1.035038660707269</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1367,34 +1367,34 @@
         <v>1.021520395280721</v>
       </c>
       <c r="D25">
-        <v>1.038759713907623</v>
+        <v>1.038759713907624</v>
       </c>
       <c r="E25">
-        <v>1.034284457005229</v>
+        <v>1.03428445700523</v>
       </c>
       <c r="F25">
-        <v>1.04453828957714</v>
+        <v>1.044538289577141</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051884847253248</v>
+        <v>1.051884847253249</v>
       </c>
       <c r="J25">
         <v>1.045344600522895</v>
       </c>
       <c r="K25">
-        <v>1.050784720958691</v>
+        <v>1.050784720958692</v>
       </c>
       <c r="L25">
-        <v>1.046372882428618</v>
+        <v>1.046372882428619</v>
       </c>
       <c r="M25">
         <v>1.056482423351079</v>
       </c>
       <c r="N25">
-        <v>1.046829109758339</v>
+        <v>1.04682910975834</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032933621433776</v>
+        <v>1.013950799707072</v>
       </c>
       <c r="D2">
-        <v>1.047672700558413</v>
+        <v>1.032085913522061</v>
       </c>
       <c r="E2">
-        <v>1.043933795246359</v>
+        <v>1.028459146080449</v>
       </c>
       <c r="F2">
-        <v>1.054241796349476</v>
+        <v>1.039567997013272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055344836200569</v>
+        <v>1.04919658511225</v>
       </c>
       <c r="J2">
-        <v>1.054172014231855</v>
+        <v>1.035722103495816</v>
       </c>
       <c r="K2">
-        <v>1.058505551265171</v>
+        <v>1.043115630889087</v>
       </c>
       <c r="L2">
-        <v>1.054813201512242</v>
+        <v>1.039535741810827</v>
       </c>
       <c r="M2">
-        <v>1.06499384532061</v>
+        <v>1.050502293538973</v>
       </c>
       <c r="N2">
-        <v>1.055669059407285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015306013369698</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048541524154459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040859777034003</v>
+        <v>1.018546513972576</v>
       </c>
       <c r="D3">
-        <v>1.053868219848815</v>
+        <v>1.03530510094215</v>
       </c>
       <c r="E3">
-        <v>1.050647747238582</v>
+        <v>1.032042105308886</v>
       </c>
       <c r="F3">
-        <v>1.06099300397794</v>
+        <v>1.042851108377244</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05772153571176</v>
+        <v>1.050175530626736</v>
       </c>
       <c r="J3">
-        <v>1.06029531742994</v>
+        <v>1.038544041455961</v>
       </c>
       <c r="K3">
-        <v>1.063855295516766</v>
+        <v>1.045505328258935</v>
       </c>
       <c r="L3">
-        <v>1.060671136391117</v>
+        <v>1.042280781270365</v>
       </c>
       <c r="M3">
-        <v>1.070900704970134</v>
+        <v>1.052963557872596</v>
       </c>
       <c r="N3">
-        <v>1.061801058398263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016291789277727</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050489425883771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045836948571929</v>
+        <v>1.021461470339748</v>
       </c>
       <c r="D4">
-        <v>1.057760471132958</v>
+        <v>1.037349285534964</v>
       </c>
       <c r="E4">
-        <v>1.054868908838004</v>
+        <v>1.034320423300217</v>
       </c>
       <c r="F4">
-        <v>1.065237314255785</v>
+        <v>1.044939220772662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05920140461304</v>
+        <v>1.050786132294637</v>
       </c>
       <c r="J4">
-        <v>1.064136621757922</v>
+        <v>1.040331678002786</v>
       </c>
       <c r="K4">
-        <v>1.067208389499247</v>
+        <v>1.047016903798045</v>
       </c>
       <c r="L4">
-        <v>1.064347318623635</v>
+        <v>1.044021551671305</v>
       </c>
       <c r="M4">
-        <v>1.07460732614481</v>
+        <v>1.054523913929356</v>
       </c>
       <c r="N4">
-        <v>1.065647817818994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016915569133092</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051724325257389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047895130898286</v>
+        <v>1.022673333943919</v>
       </c>
       <c r="D5">
-        <v>1.059370337464292</v>
+        <v>1.038199632522527</v>
       </c>
       <c r="E5">
-        <v>1.056615609361161</v>
+        <v>1.035268935821909</v>
       </c>
       <c r="F5">
-        <v>1.066993517668223</v>
+        <v>1.045808644591913</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059810286680692</v>
+        <v>1.051037464089045</v>
       </c>
       <c r="J5">
-        <v>1.065724118896321</v>
+        <v>1.041074290010788</v>
       </c>
       <c r="K5">
-        <v>1.068593393202608</v>
+        <v>1.04764428024468</v>
       </c>
       <c r="L5">
-        <v>1.065866885661755</v>
+        <v>1.044745134171035</v>
       </c>
       <c r="M5">
-        <v>1.076139402476086</v>
+        <v>1.055172386682943</v>
       </c>
       <c r="N5">
-        <v>1.067237569385419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01717452545986</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052237539956394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048238758953672</v>
+        <v>1.022876028338722</v>
       </c>
       <c r="D6">
-        <v>1.059639132019914</v>
+        <v>1.038341887763892</v>
       </c>
       <c r="E6">
-        <v>1.056907298087098</v>
+        <v>1.03542765899968</v>
       </c>
       <c r="F6">
-        <v>1.067286788574126</v>
+        <v>1.045954138542564</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059911760849045</v>
+        <v>1.051079352093329</v>
       </c>
       <c r="J6">
-        <v>1.065989103388559</v>
+        <v>1.041198462930195</v>
       </c>
       <c r="K6">
-        <v>1.068824533859644</v>
+        <v>1.047749151368128</v>
       </c>
       <c r="L6">
-        <v>1.066120549128913</v>
+        <v>1.044866150874207</v>
       </c>
       <c r="M6">
-        <v>1.076395149593119</v>
+        <v>1.05528083443126</v>
       </c>
       <c r="N6">
-        <v>1.06750293018603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017217815542867</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052323367704784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045864581963321</v>
+        <v>1.021477716067673</v>
       </c>
       <c r="D7">
-        <v>1.057782084237697</v>
+        <v>1.037360683036658</v>
       </c>
       <c r="E7">
-        <v>1.054892355823352</v>
+        <v>1.034333133486831</v>
       </c>
       <c r="F7">
-        <v>1.065260889117313</v>
+        <v>1.044950870790286</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05920959180763</v>
+        <v>1.050789511550242</v>
       </c>
       <c r="J7">
-        <v>1.064157939628491</v>
+        <v>1.040341635484037</v>
       </c>
       <c r="K7">
-        <v>1.067226991091139</v>
+        <v>1.047025318333903</v>
       </c>
       <c r="L7">
-        <v>1.064367723078381</v>
+        <v>1.044031252259744</v>
       </c>
       <c r="M7">
-        <v>1.074627898872094</v>
+        <v>1.054532608044377</v>
       </c>
       <c r="N7">
-        <v>1.065669165963385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016919042093845</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051731205961478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035644991232004</v>
+        <v>1.01551641440768</v>
       </c>
       <c r="D8">
-        <v>1.049791600916815</v>
+        <v>1.033182063467247</v>
       </c>
       <c r="E8">
-        <v>1.046229339573812</v>
+        <v>1.029678515322959</v>
       </c>
       <c r="F8">
-        <v>1.056550130074991</v>
+        <v>1.040685216517989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056160464178993</v>
+        <v>1.049532217587906</v>
       </c>
       <c r="J8">
-        <v>1.056267419667947</v>
+        <v>1.036683896957398</v>
       </c>
       <c r="K8">
-        <v>1.060336847323233</v>
+        <v>1.043930565891974</v>
       </c>
       <c r="L8">
-        <v>1.056817503282202</v>
+        <v>1.040470936153248</v>
       </c>
       <c r="M8">
-        <v>1.067014936540347</v>
+        <v>1.051340901323002</v>
       </c>
       <c r="N8">
-        <v>1.057767440559442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015642133012054</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049205218394524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016372548750517</v>
+        <v>1.004538514059248</v>
       </c>
       <c r="D9">
-        <v>1.034743464288718</v>
+        <v>1.025508453052143</v>
       </c>
       <c r="E9">
-        <v>1.029939524236978</v>
+        <v>1.02115487850318</v>
       </c>
       <c r="F9">
-        <v>1.040168836521936</v>
+        <v>1.032878103664632</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050311600312201</v>
+        <v>1.047136860657801</v>
       </c>
       <c r="J9">
-        <v>1.041360108455402</v>
+        <v>1.0299320173927</v>
       </c>
       <c r="K9">
-        <v>1.047296925817855</v>
+        <v>1.038200799196182</v>
       </c>
       <c r="L9">
-        <v>1.04256483613299</v>
+        <v>1.033913809601098</v>
       </c>
       <c r="M9">
-        <v>1.052642166338952</v>
+        <v>1.045459363581613</v>
       </c>
       <c r="N9">
-        <v>1.042838959255082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013279888472509</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044550416310464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002510881713356</v>
+        <v>0.996956175469257</v>
       </c>
       <c r="D10">
-        <v>1.023943371921825</v>
+        <v>1.020248597328723</v>
       </c>
       <c r="E10">
-        <v>1.01826342059566</v>
+        <v>1.015327835132507</v>
       </c>
       <c r="F10">
-        <v>1.028426825714389</v>
+        <v>1.02757573817055</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046042570502348</v>
+        <v>1.045455158438077</v>
       </c>
       <c r="J10">
-        <v>1.030625232028668</v>
+        <v>1.025291081377449</v>
       </c>
       <c r="K10">
-        <v>1.037893372019747</v>
+        <v>1.034261634429855</v>
       </c>
       <c r="L10">
-        <v>1.032310571336449</v>
+        <v>1.029425747918313</v>
       </c>
       <c r="M10">
-        <v>1.042301117328797</v>
+        <v>1.041464335901859</v>
       </c>
       <c r="N10">
-        <v>1.032088838072515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011662124730514</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041439884734894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9962251034100338</v>
+        <v>0.9943121898237963</v>
       </c>
       <c r="D11">
-        <v>1.019053821797453</v>
+        <v>1.018598414093949</v>
       </c>
       <c r="E11">
-        <v>1.01298041252619</v>
+        <v>1.013504460963612</v>
       </c>
       <c r="F11">
-        <v>1.023114130204134</v>
+        <v>1.026167224010109</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044093226280088</v>
+        <v>1.045051882248656</v>
       </c>
       <c r="J11">
-        <v>1.025755770095581</v>
+        <v>1.023923517734329</v>
       </c>
       <c r="K11">
-        <v>1.033625139510123</v>
+        <v>1.033177912696309</v>
       </c>
       <c r="L11">
-        <v>1.027661619789648</v>
+        <v>1.02817611876614</v>
       </c>
       <c r="M11">
-        <v>1.037612926787032</v>
+        <v>1.040611979422432</v>
       </c>
       <c r="N11">
-        <v>1.027212460944948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011263704807543</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041200185596585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.993843388828908</v>
+        <v>0.9936105352168769</v>
       </c>
       <c r="D12">
-        <v>1.017202565690406</v>
+        <v>1.018252760517466</v>
       </c>
       <c r="E12">
-        <v>1.010980615516462</v>
+        <v>1.013120800666559</v>
       </c>
       <c r="F12">
-        <v>1.021103136254782</v>
+        <v>1.026002932878289</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043352708224853</v>
+        <v>1.045042127614845</v>
       </c>
       <c r="J12">
-        <v>1.023910612483178</v>
+        <v>1.023687792109203</v>
       </c>
       <c r="K12">
-        <v>1.032007449630418</v>
+        <v>1.033038426654985</v>
       </c>
       <c r="L12">
-        <v>1.025900425161206</v>
+        <v>1.02800087126864</v>
       </c>
       <c r="M12">
-        <v>1.035836901765502</v>
+        <v>1.040648356577175</v>
       </c>
       <c r="N12">
-        <v>1.025364682997093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011247707026756</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041554411597537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943564723200832</v>
+        <v>0.9943612444014005</v>
       </c>
       <c r="D13">
-        <v>1.017601306486496</v>
+        <v>1.018890953678024</v>
       </c>
       <c r="E13">
-        <v>1.011411331868567</v>
+        <v>1.013822759704569</v>
       </c>
       <c r="F13">
-        <v>1.021536262004931</v>
+        <v>1.026794994026548</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043512318771722</v>
+        <v>1.045340132034149</v>
       </c>
       <c r="J13">
-        <v>1.024308109294118</v>
+        <v>1.024312676880085</v>
       </c>
       <c r="K13">
-        <v>1.032355958817944</v>
+        <v>1.03362211646666</v>
       </c>
       <c r="L13">
-        <v>1.026279815212574</v>
+        <v>1.028646682545297</v>
       </c>
       <c r="M13">
-        <v>1.036219484630374</v>
+        <v>1.041383866495681</v>
       </c>
       <c r="N13">
-        <v>1.025762744299098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011526177005323</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042411878868702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9960292137633945</v>
+        <v>0.9955417339551023</v>
       </c>
       <c r="D14">
-        <v>1.018901530723506</v>
+        <v>1.019780782885799</v>
       </c>
       <c r="E14">
-        <v>1.012815893524247</v>
+        <v>1.014803067193098</v>
       </c>
       <c r="F14">
-        <v>1.022948689099379</v>
+        <v>1.027780233430511</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044032358420816</v>
+        <v>1.045686471034839</v>
       </c>
       <c r="J14">
-        <v>1.025604011816528</v>
+        <v>1.025137086378074</v>
       </c>
       <c r="K14">
-        <v>1.033492096569752</v>
+        <v>1.034355554085978</v>
       </c>
       <c r="L14">
-        <v>1.027516758771613</v>
+        <v>1.02946772657321</v>
       </c>
       <c r="M14">
-        <v>1.037466845124796</v>
+        <v>1.042212913681404</v>
       </c>
       <c r="N14">
-        <v>1.027060487151732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011853175417877</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043240097544913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970534922185968</v>
+        <v>0.9961476723061676</v>
       </c>
       <c r="D15">
-        <v>1.019697897725814</v>
+        <v>1.020215430333409</v>
       </c>
       <c r="E15">
-        <v>1.01367622045548</v>
+        <v>1.015283018569515</v>
       </c>
       <c r="F15">
-        <v>1.023813839812214</v>
+        <v>1.028237512905762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04435055114712</v>
+        <v>1.045839997947566</v>
       </c>
       <c r="J15">
-        <v>1.026397530901339</v>
+        <v>1.025529530624137</v>
       </c>
       <c r="K15">
-        <v>1.034187742202434</v>
+        <v>1.034696055919007</v>
       </c>
       <c r="L15">
-        <v>1.028274229906943</v>
+        <v>1.029852002613397</v>
       </c>
       <c r="M15">
-        <v>1.038230700479284</v>
+        <v>1.042576776687162</v>
       </c>
       <c r="N15">
-        <v>1.027855133124661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011998365143294</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043565138366062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00292172027166</v>
+        <v>0.9992164998279065</v>
       </c>
       <c r="D16">
-        <v>1.024263135386232</v>
+        <v>1.022322191299641</v>
       </c>
       <c r="E16">
-        <v>1.018608976568441</v>
+        <v>1.017617429352105</v>
       </c>
       <c r="F16">
-        <v>1.028774327953517</v>
+        <v>1.030351191769359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046169710967243</v>
+        <v>1.046509452323121</v>
       </c>
       <c r="J16">
-        <v>1.030943479256616</v>
+        <v>1.027384353126859</v>
       </c>
       <c r="K16">
-        <v>1.038172274171096</v>
+        <v>1.036264248292576</v>
       </c>
       <c r="L16">
-        <v>1.032614461114697</v>
+        <v>1.031639952326642</v>
       </c>
       <c r="M16">
-        <v>1.042607575784905</v>
+        <v>1.044158114223988</v>
       </c>
       <c r="N16">
-        <v>1.03240753724803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012632118839148</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044776421695539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00652393079526</v>
+        <v>1.00095103419011</v>
       </c>
       <c r="D17">
-        <v>1.027067721026761</v>
+        <v>1.023471161713375</v>
       </c>
       <c r="E17">
-        <v>1.021640132992172</v>
+        <v>1.018893911557819</v>
       </c>
       <c r="F17">
-        <v>1.031822573941262</v>
+        <v>1.03145198294907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047282965037379</v>
+        <v>1.046837993465471</v>
       </c>
       <c r="J17">
-        <v>1.033733692053413</v>
+        <v>1.028372714550587</v>
       </c>
       <c r="K17">
-        <v>1.040617235477363</v>
+        <v>1.037079802239584</v>
       </c>
       <c r="L17">
-        <v>1.035279080828444</v>
+        <v>1.032578578152706</v>
       </c>
       <c r="M17">
-        <v>1.045294732637361</v>
+        <v>1.044930137813907</v>
       </c>
       <c r="N17">
-        <v>1.035201712467041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012945839499426</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045258035803086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008597996500379</v>
+        <v>1.001694932038786</v>
       </c>
       <c r="D18">
-        <v>1.028683259728342</v>
+        <v>1.023890818789212</v>
       </c>
       <c r="E18">
-        <v>1.023386482385351</v>
+        <v>1.0193629763006</v>
       </c>
       <c r="F18">
-        <v>1.033578780241357</v>
+        <v>1.031754201308673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047922675245406</v>
+        <v>1.046897989983528</v>
       </c>
       <c r="J18">
-        <v>1.035340071365627</v>
+        <v>1.028694059453706</v>
       </c>
       <c r="K18">
-        <v>1.04202459258109</v>
+        <v>1.037309525849627</v>
       </c>
       <c r="L18">
-        <v>1.036813386117881</v>
+        <v>1.032855645159159</v>
       </c>
       <c r="M18">
-        <v>1.046842023598393</v>
+        <v>1.045046437904388</v>
       </c>
       <c r="N18">
-        <v>1.036810373022132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013007763455137</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045113182125157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009300733328427</v>
+        <v>1.001547855916486</v>
       </c>
       <c r="D19">
-        <v>1.029230754787319</v>
+        <v>1.02365616795792</v>
       </c>
       <c r="E19">
-        <v>1.023978360073641</v>
+        <v>1.019104833852708</v>
       </c>
       <c r="F19">
-        <v>1.034173999959755</v>
+        <v>1.031336092735868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048139202756447</v>
+        <v>1.046720990494319</v>
       </c>
       <c r="J19">
-        <v>1.035884315545035</v>
+        <v>1.028418228314313</v>
       </c>
       <c r="K19">
-        <v>1.042501363189973</v>
+        <v>1.037016264075238</v>
       </c>
       <c r="L19">
-        <v>1.037333250054421</v>
+        <v>1.032538924668247</v>
       </c>
       <c r="M19">
-        <v>1.047366288373754</v>
+        <v>1.04457322693579</v>
       </c>
       <c r="N19">
-        <v>1.037355390090701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012848882494509</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044414887551363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006140273999175</v>
+        <v>0.998926647374392</v>
       </c>
       <c r="D20">
-        <v>1.026768938984554</v>
+        <v>1.021614913957981</v>
       </c>
       <c r="E20">
-        <v>1.021317182910934</v>
+        <v>1.016840503564246</v>
       </c>
       <c r="F20">
-        <v>1.031497801791009</v>
+        <v>1.028953526927764</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047164528523396</v>
+        <v>1.045896815894461</v>
       </c>
       <c r="J20">
-        <v>1.033436533271745</v>
+        <v>1.026499007759279</v>
       </c>
       <c r="K20">
-        <v>1.040356872221602</v>
+        <v>1.035288048794722</v>
       </c>
       <c r="L20">
-        <v>1.034995273403005</v>
+        <v>1.03059355842996</v>
       </c>
       <c r="M20">
-        <v>1.045008523767107</v>
+        <v>1.042505677603505</v>
       </c>
       <c r="N20">
-        <v>1.034904131685818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012083746351818</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042253482568145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9955379651417647</v>
+        <v>0.9930829144668296</v>
       </c>
       <c r="D21">
-        <v>1.018519641504233</v>
+        <v>1.017535349771254</v>
       </c>
       <c r="E21">
-        <v>1.012403347947821</v>
+        <v>1.012325045011968</v>
       </c>
       <c r="F21">
-        <v>1.022533832001076</v>
+        <v>1.024797402248428</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043879684959652</v>
+        <v>1.044547586918413</v>
       </c>
       <c r="J21">
-        <v>1.025223434092579</v>
+        <v>1.022872710221758</v>
       </c>
       <c r="K21">
-        <v>1.033158447469975</v>
+        <v>1.032191954601824</v>
       </c>
       <c r="L21">
-        <v>1.027153484563412</v>
+        <v>1.027076618281461</v>
       </c>
       <c r="M21">
-        <v>1.037100510481735</v>
+        <v>1.039323731943936</v>
       </c>
       <c r="N21">
-        <v>1.026679368963762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010804767654722</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039694486125494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885979574755094</v>
+        <v>0.9893677019661588</v>
       </c>
       <c r="D22">
-        <v>1.01312830663252</v>
+        <v>1.014957983572415</v>
       </c>
       <c r="E22">
-        <v>1.006580183644326</v>
+        <v>1.009475409038657</v>
       </c>
       <c r="F22">
-        <v>1.016678166684179</v>
+        <v>1.022191222570576</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041718451493082</v>
+        <v>1.043691681411457</v>
       </c>
       <c r="J22">
-        <v>1.019846885300599</v>
+        <v>1.02058175596727</v>
       </c>
       <c r="K22">
-        <v>1.028444099620988</v>
+        <v>1.030238831858412</v>
       </c>
       <c r="L22">
-        <v>1.022022403230123</v>
+        <v>1.024861464598394</v>
       </c>
       <c r="M22">
-        <v>1.031926311450887</v>
+        <v>1.037335523154975</v>
       </c>
       <c r="N22">
-        <v>1.021295184855799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010000656527013</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038120948687609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9923045467023973</v>
+        <v>0.9913455147812436</v>
       </c>
       <c r="D23">
-        <v>1.016006888238614</v>
+        <v>1.016329519248864</v>
       </c>
       <c r="E23">
-        <v>1.009689114214859</v>
+        <v>1.010991577133072</v>
       </c>
       <c r="F23">
-        <v>1.019804418098791</v>
+        <v>1.023577749646832</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04287373537337</v>
+        <v>1.044148218662832</v>
       </c>
       <c r="J23">
-        <v>1.022718436862883</v>
+        <v>1.021801410031056</v>
       </c>
       <c r="K23">
-        <v>1.030962150455615</v>
+        <v>1.031278794668951</v>
       </c>
       <c r="L23">
-        <v>1.024762617612421</v>
+        <v>1.026040546155173</v>
       </c>
       <c r="M23">
-        <v>1.034689525501428</v>
+        <v>1.038393820216923</v>
       </c>
       <c r="N23">
-        <v>1.024170814350672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010428792096193</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038958522141503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00631371524362</v>
+        <v>0.9989524348341624</v>
       </c>
       <c r="D24">
-        <v>1.026904008324287</v>
+        <v>1.021615816419422</v>
       </c>
       <c r="E24">
-        <v>1.021463176881352</v>
+        <v>1.016841024615809</v>
       </c>
       <c r="F24">
-        <v>1.031644619419684</v>
+        <v>1.028929293019658</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047218074555879</v>
+        <v>1.045884340838293</v>
       </c>
       <c r="J24">
-        <v>1.033570871517479</v>
+        <v>1.026490869638677</v>
       </c>
       <c r="K24">
-        <v>1.040474576900155</v>
+        <v>1.035273677724551</v>
       </c>
       <c r="L24">
-        <v>1.035123575106161</v>
+        <v>1.030578709708721</v>
       </c>
       <c r="M24">
-        <v>1.045137911073399</v>
+        <v>1.042466735378714</v>
       </c>
       <c r="N24">
-        <v>1.035038660707269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012073919429064</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042181961103986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021520395280721</v>
+        <v>1.007436064483297</v>
       </c>
       <c r="D25">
-        <v>1.038759713907624</v>
+        <v>1.02753093042756</v>
       </c>
       <c r="E25">
-        <v>1.03428445700523</v>
+        <v>1.023398687442402</v>
       </c>
       <c r="F25">
-        <v>1.044538289577141</v>
+        <v>1.034932707240262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051884847253249</v>
+        <v>1.047778153004221</v>
       </c>
       <c r="J25">
-        <v>1.045344600522895</v>
+        <v>1.031715740959316</v>
       </c>
       <c r="K25">
-        <v>1.050784720958692</v>
+        <v>1.039716384865212</v>
       </c>
       <c r="L25">
-        <v>1.046372882428619</v>
+        <v>1.035644311828126</v>
       </c>
       <c r="M25">
-        <v>1.056482423351079</v>
+        <v>1.04701190341196</v>
       </c>
       <c r="N25">
-        <v>1.04682910975834</v>
+        <v>1.013904511642076</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045779139606972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013950799707072</v>
+        <v>1.012952364422291</v>
       </c>
       <c r="D2">
-        <v>1.032085913522061</v>
+        <v>1.030611545987068</v>
       </c>
       <c r="E2">
-        <v>1.028459146080449</v>
+        <v>1.027585811986742</v>
       </c>
       <c r="F2">
-        <v>1.039567997013272</v>
+        <v>1.038595436440319</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04919658511225</v>
+        <v>1.048611704824466</v>
       </c>
       <c r="J2">
-        <v>1.035722103495816</v>
+        <v>1.034752455590018</v>
       </c>
       <c r="K2">
-        <v>1.043115630889087</v>
+        <v>1.041660270734078</v>
       </c>
       <c r="L2">
-        <v>1.039535741810827</v>
+        <v>1.038673758032583</v>
       </c>
       <c r="M2">
-        <v>1.050502293538973</v>
+        <v>1.049542039218078</v>
       </c>
       <c r="N2">
-        <v>1.015306013369698</v>
+        <v>1.016066223615965</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048541524154459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047781555209077</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02300288635137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018546513972576</v>
+        <v>1.01723705933709</v>
       </c>
       <c r="D3">
-        <v>1.03530510094215</v>
+        <v>1.033492740204851</v>
       </c>
       <c r="E3">
-        <v>1.032042105308886</v>
+        <v>1.030898438371894</v>
       </c>
       <c r="F3">
-        <v>1.042851108377244</v>
+        <v>1.041622905708551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050175530626736</v>
+        <v>1.049440221270131</v>
       </c>
       <c r="J3">
-        <v>1.038544041455961</v>
+        <v>1.037268605140034</v>
       </c>
       <c r="K3">
-        <v>1.045505328258935</v>
+        <v>1.043714285879184</v>
       </c>
       <c r="L3">
-        <v>1.042280781270365</v>
+        <v>1.04115066180119</v>
       </c>
       <c r="M3">
-        <v>1.052963557872596</v>
+        <v>1.051749535020654</v>
       </c>
       <c r="N3">
-        <v>1.016291789277727</v>
+        <v>1.016763300245091</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050489425883771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049528620653151</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023459102595905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021461470339748</v>
+        <v>1.019957448182459</v>
       </c>
       <c r="D4">
-        <v>1.037349285534964</v>
+        <v>1.035324387442783</v>
       </c>
       <c r="E4">
-        <v>1.034320423300217</v>
+        <v>1.033007374757751</v>
       </c>
       <c r="F4">
-        <v>1.044939220772662</v>
+        <v>1.043550641813421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050786132294637</v>
+        <v>1.049956162755968</v>
       </c>
       <c r="J4">
-        <v>1.040331678002786</v>
+        <v>1.038864060303364</v>
       </c>
       <c r="K4">
-        <v>1.047016903798045</v>
+        <v>1.045014381649085</v>
       </c>
       <c r="L4">
-        <v>1.044021551671305</v>
+        <v>1.042723105285445</v>
       </c>
       <c r="M4">
-        <v>1.054523913929356</v>
+        <v>1.053150395500609</v>
       </c>
       <c r="N4">
-        <v>1.016915569133092</v>
+        <v>1.017204919398372</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051724325257389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050637293312053</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023745215890014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022673333943919</v>
+        <v>1.021089032480054</v>
       </c>
       <c r="D5">
-        <v>1.038199632522527</v>
+        <v>1.036086795485032</v>
       </c>
       <c r="E5">
-        <v>1.035268935821909</v>
+        <v>1.033885944524696</v>
       </c>
       <c r="F5">
-        <v>1.045808644591913</v>
+        <v>1.044353794626613</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051037464089045</v>
+        <v>1.050168314081644</v>
       </c>
       <c r="J5">
-        <v>1.041074290010788</v>
+        <v>1.03952718064621</v>
       </c>
       <c r="K5">
-        <v>1.04764428024468</v>
+        <v>1.045554167096535</v>
       </c>
       <c r="L5">
-        <v>1.044745134171035</v>
+        <v>1.043377107756407</v>
       </c>
       <c r="M5">
-        <v>1.055172386682943</v>
+        <v>1.053732894432711</v>
       </c>
       <c r="N5">
-        <v>1.01717452545986</v>
+        <v>1.017388373053901</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052237539956394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051098295653653</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023863364677557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022876028338722</v>
+        <v>1.021278334262718</v>
       </c>
       <c r="D6">
-        <v>1.038341887763892</v>
+        <v>1.036214366366244</v>
       </c>
       <c r="E6">
-        <v>1.03542765899968</v>
+        <v>1.034032996483249</v>
       </c>
       <c r="F6">
-        <v>1.045954138542564</v>
+        <v>1.044488227330495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051079352093329</v>
+        <v>1.050203658819511</v>
       </c>
       <c r="J6">
-        <v>1.041198462930195</v>
+        <v>1.039638081216399</v>
       </c>
       <c r="K6">
-        <v>1.047749151368128</v>
+        <v>1.045644406840893</v>
       </c>
       <c r="L6">
-        <v>1.044866150874207</v>
+        <v>1.043486509613946</v>
       </c>
       <c r="M6">
-        <v>1.05528083443126</v>
+        <v>1.053830326724585</v>
       </c>
       <c r="N6">
-        <v>1.017217815542867</v>
+        <v>1.017419048123893</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052323367704784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.05117540566379</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023883078490661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021477716067673</v>
+        <v>1.019983966530932</v>
       </c>
       <c r="D7">
-        <v>1.037360683036658</v>
+        <v>1.035343339451546</v>
       </c>
       <c r="E7">
-        <v>1.034333133486831</v>
+        <v>1.033028908223893</v>
       </c>
       <c r="F7">
-        <v>1.044950870790286</v>
+        <v>1.043569460707777</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050789511550242</v>
+        <v>1.049963316289601</v>
       </c>
       <c r="J7">
-        <v>1.040341635484037</v>
+        <v>1.038884026565269</v>
       </c>
       <c r="K7">
-        <v>1.047025318333903</v>
+        <v>1.045030258988709</v>
       </c>
       <c r="L7">
-        <v>1.044031252259744</v>
+        <v>1.042741525609091</v>
       </c>
       <c r="M7">
-        <v>1.054532608044377</v>
+        <v>1.053166175225601</v>
       </c>
       <c r="N7">
-        <v>1.016919042093845</v>
+        <v>1.01723678242639</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051731205961478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050649781733834</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023749551428655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01551641440768</v>
+        <v>1.014446625974823</v>
       </c>
       <c r="D8">
-        <v>1.033182063467247</v>
+        <v>1.031619433083438</v>
       </c>
       <c r="E8">
-        <v>1.029678515322959</v>
+        <v>1.028743011084936</v>
       </c>
       <c r="F8">
-        <v>1.040685216517989</v>
+        <v>1.03965031988364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049532217587906</v>
+        <v>1.048909409952675</v>
       </c>
       <c r="J8">
-        <v>1.036683896957398</v>
+        <v>1.035643903677652</v>
       </c>
       <c r="K8">
-        <v>1.043930565891974</v>
+        <v>1.042387477768866</v>
       </c>
       <c r="L8">
-        <v>1.040470936153248</v>
+        <v>1.039547221978055</v>
       </c>
       <c r="M8">
-        <v>1.051340901323002</v>
+        <v>1.050318707764129</v>
       </c>
       <c r="N8">
-        <v>1.015642133012054</v>
+        <v>1.016393520381692</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049205218394524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048396229905946</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023167615115698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004538514059248</v>
+        <v>1.004234714478725</v>
       </c>
       <c r="D9">
-        <v>1.025508453052143</v>
+        <v>1.024769504914526</v>
       </c>
       <c r="E9">
-        <v>1.02115487850318</v>
+        <v>1.020883295403764</v>
       </c>
       <c r="F9">
-        <v>1.032878103664632</v>
+        <v>1.03246934461271</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047136860657801</v>
+        <v>1.046880473965921</v>
       </c>
       <c r="J9">
-        <v>1.0299320173927</v>
+        <v>1.029638815211875</v>
       </c>
       <c r="K9">
-        <v>1.038200799196182</v>
+        <v>1.037473101938926</v>
       </c>
       <c r="L9">
-        <v>1.033913809601098</v>
+        <v>1.033646404199559</v>
       </c>
       <c r="M9">
-        <v>1.045459363581613</v>
+        <v>1.045056713098007</v>
       </c>
       <c r="N9">
-        <v>1.013279888472509</v>
+        <v>1.014737909371979</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044550416310464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044231747157763</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022061752942537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.996956175469257</v>
+        <v>0.9972455651069363</v>
       </c>
       <c r="D10">
-        <v>1.020248597328723</v>
+        <v>1.020125491780359</v>
       </c>
       <c r="E10">
-        <v>1.015327835132507</v>
+        <v>1.015567695806272</v>
       </c>
       <c r="F10">
-        <v>1.02757573817055</v>
+        <v>1.02764368926092</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045455158438077</v>
+        <v>1.045473588964081</v>
       </c>
       <c r="J10">
-        <v>1.025291081377449</v>
+        <v>1.025568894503767</v>
       </c>
       <c r="K10">
-        <v>1.034261634429855</v>
+        <v>1.03414063935923</v>
       </c>
       <c r="L10">
-        <v>1.029425747918313</v>
+        <v>1.029661446681834</v>
       </c>
       <c r="M10">
-        <v>1.041464335901859</v>
+        <v>1.041531143664974</v>
       </c>
       <c r="N10">
-        <v>1.011662124730514</v>
+        <v>1.013734086842747</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041439884734894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041492755256926</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021308645022588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9943121898237963</v>
+        <v>0.9948417687260148</v>
       </c>
       <c r="D11">
-        <v>1.018598414093949</v>
+        <v>1.018706736716542</v>
       </c>
       <c r="E11">
-        <v>1.013504460963612</v>
+        <v>1.013947116099664</v>
       </c>
       <c r="F11">
-        <v>1.026167224010109</v>
+        <v>1.026420962402277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045051882248656</v>
+        <v>1.045169808871794</v>
       </c>
       <c r="J11">
-        <v>1.023923517734329</v>
+        <v>1.024430721818919</v>
       </c>
       <c r="K11">
-        <v>1.033177912696309</v>
+        <v>1.033284288562762</v>
       </c>
       <c r="L11">
-        <v>1.02817611876614</v>
+        <v>1.028610717635503</v>
       </c>
       <c r="M11">
-        <v>1.040611979422432</v>
+        <v>1.040861245286995</v>
       </c>
       <c r="N11">
-        <v>1.011263704807543</v>
+        <v>1.013708144440652</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041200185596585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041397351862072</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02117078319752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9936105352168769</v>
+        <v>0.9941914874522273</v>
       </c>
       <c r="D12">
-        <v>1.018252760517466</v>
+        <v>1.018407632028153</v>
       </c>
       <c r="E12">
-        <v>1.013120800666559</v>
+        <v>1.013603853449308</v>
       </c>
       <c r="F12">
-        <v>1.026002932878289</v>
+        <v>1.026294429282443</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045042127614845</v>
+        <v>1.04517609992167</v>
       </c>
       <c r="J12">
-        <v>1.023687792109203</v>
+        <v>1.024243724677112</v>
       </c>
       <c r="K12">
-        <v>1.033038426654985</v>
+        <v>1.033190468495124</v>
       </c>
       <c r="L12">
-        <v>1.02800087126864</v>
+        <v>1.028474984969716</v>
       </c>
       <c r="M12">
-        <v>1.040648356577175</v>
+        <v>1.04093463191996</v>
       </c>
       <c r="N12">
-        <v>1.011247707026756</v>
+        <v>1.013805624333119</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041554411597537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041780775722175</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02119225833784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943612444014005</v>
+        <v>0.9948335812771678</v>
       </c>
       <c r="D13">
-        <v>1.018890953678024</v>
+        <v>1.018938794780177</v>
       </c>
       <c r="E13">
-        <v>1.013822759704569</v>
+        <v>1.01420865330385</v>
       </c>
       <c r="F13">
-        <v>1.026794994026548</v>
+        <v>1.026999912573044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045340132034149</v>
+        <v>1.045420419466937</v>
       </c>
       <c r="J13">
-        <v>1.024312676880085</v>
+        <v>1.024764786785218</v>
       </c>
       <c r="K13">
-        <v>1.03362211646666</v>
+        <v>1.033669087682561</v>
       </c>
       <c r="L13">
-        <v>1.028646682545297</v>
+        <v>1.029025470885907</v>
       </c>
       <c r="M13">
-        <v>1.041383866495681</v>
+        <v>1.04158513386137</v>
       </c>
       <c r="N13">
-        <v>1.011526177005323</v>
+        <v>1.013966501424931</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042411878868702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042570985570399</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021335874226067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9955417339551023</v>
+        <v>0.9958672188296089</v>
       </c>
       <c r="D14">
-        <v>1.019780782885799</v>
+        <v>1.019685770480259</v>
       </c>
       <c r="E14">
-        <v>1.014803067193098</v>
+        <v>1.015060340033654</v>
       </c>
       <c r="F14">
-        <v>1.027780233430511</v>
+        <v>1.02786970928712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045686471034839</v>
+        <v>1.045698683368419</v>
       </c>
       <c r="J14">
-        <v>1.025137086378074</v>
+        <v>1.025448844147858</v>
       </c>
       <c r="K14">
-        <v>1.034355554085978</v>
+        <v>1.034262246751964</v>
       </c>
       <c r="L14">
-        <v>1.02946772657321</v>
+        <v>1.029720325443028</v>
       </c>
       <c r="M14">
-        <v>1.042212913681404</v>
+        <v>1.042300816425944</v>
       </c>
       <c r="N14">
-        <v>1.011853175417877</v>
+        <v>1.014108652404312</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043240097544913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043309577453387</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02149148165287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9961476723061676</v>
+        <v>0.9964037572059866</v>
       </c>
       <c r="D15">
-        <v>1.020215430333409</v>
+        <v>1.020053147638465</v>
       </c>
       <c r="E15">
-        <v>1.015283018569515</v>
+        <v>1.01548017598337</v>
       </c>
       <c r="F15">
-        <v>1.028237512905762</v>
+        <v>1.028272756631586</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045839997947566</v>
+        <v>1.045821071062679</v>
       </c>
       <c r="J15">
-        <v>1.025529530624137</v>
+        <v>1.025774913589369</v>
       </c>
       <c r="K15">
-        <v>1.034696055919007</v>
+        <v>1.034536662684596</v>
       </c>
       <c r="L15">
-        <v>1.029852002613397</v>
+        <v>1.030045606773436</v>
       </c>
       <c r="M15">
-        <v>1.042576776687162</v>
+        <v>1.042611405664077</v>
       </c>
       <c r="N15">
-        <v>1.011998365143294</v>
+        <v>1.014161506024572</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043565138366062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043592509016537</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021557716997035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9992164998279065</v>
+        <v>0.9991622699501422</v>
       </c>
       <c r="D16">
-        <v>1.022322191299641</v>
+        <v>1.021857382141651</v>
       </c>
       <c r="E16">
-        <v>1.017617429352105</v>
+        <v>1.017548727631644</v>
       </c>
       <c r="F16">
-        <v>1.030351191769359</v>
+        <v>1.03014442597697</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046509452323121</v>
+        <v>1.046355015251749</v>
       </c>
       <c r="J16">
-        <v>1.027384353126859</v>
+        <v>1.027332272888463</v>
       </c>
       <c r="K16">
-        <v>1.036264248292576</v>
+        <v>1.035807346214571</v>
       </c>
       <c r="L16">
-        <v>1.031639952326642</v>
+        <v>1.031572432744848</v>
       </c>
       <c r="M16">
-        <v>1.044158114223988</v>
+        <v>1.043954794424392</v>
       </c>
       <c r="N16">
-        <v>1.012632118839148</v>
+        <v>1.014371353493342</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044776421695539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.044615713647451</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021836048121757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00095103419011</v>
+        <v>1.000749712416125</v>
       </c>
       <c r="D17">
-        <v>1.023471161713375</v>
+        <v>1.022859883107617</v>
       </c>
       <c r="E17">
-        <v>1.018893911557819</v>
+        <v>1.018700351052701</v>
       </c>
       <c r="F17">
-        <v>1.03145198294907</v>
+        <v>1.031129853114331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046837993465471</v>
+        <v>1.046620131727761</v>
       </c>
       <c r="J17">
-        <v>1.028372714550587</v>
+        <v>1.028179110736601</v>
       </c>
       <c r="K17">
-        <v>1.037079802239584</v>
+        <v>1.036478626029313</v>
       </c>
       <c r="L17">
-        <v>1.032578578152706</v>
+        <v>1.032388252002049</v>
       </c>
       <c r="M17">
-        <v>1.044930137813907</v>
+        <v>1.044613224541413</v>
       </c>
       <c r="N17">
-        <v>1.012945839499426</v>
+        <v>1.014488085635821</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045258035803086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.045007516322649</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021969537276168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001694932038786</v>
+        <v>1.001456372307341</v>
       </c>
       <c r="D18">
-        <v>1.023890818789212</v>
+        <v>1.023240870589814</v>
       </c>
       <c r="E18">
-        <v>1.0193629763006</v>
+        <v>1.019139817949193</v>
       </c>
       <c r="F18">
-        <v>1.031754201308673</v>
+        <v>1.031402880973899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046897989983528</v>
+        <v>1.046666618749413</v>
       </c>
       <c r="J18">
-        <v>1.028694059453706</v>
+        <v>1.028464472332348</v>
       </c>
       <c r="K18">
-        <v>1.037309525849627</v>
+        <v>1.036670142793098</v>
       </c>
       <c r="L18">
-        <v>1.032855645159159</v>
+        <v>1.032636153929818</v>
       </c>
       <c r="M18">
-        <v>1.045046437904388</v>
+        <v>1.044700715274292</v>
       </c>
       <c r="N18">
-        <v>1.013007763455137</v>
+        <v>1.014490767767992</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045113182125157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.044839832291568</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021982598025847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001547855916486</v>
+        <v>1.001359769901238</v>
       </c>
       <c r="D19">
-        <v>1.02365616795792</v>
+        <v>1.023055761148659</v>
       </c>
       <c r="E19">
-        <v>1.019104833852708</v>
+        <v>1.018928187030071</v>
       </c>
       <c r="F19">
-        <v>1.031336092735868</v>
+        <v>1.031025138872791</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046720990494319</v>
+        <v>1.046516639713417</v>
       </c>
       <c r="J19">
-        <v>1.028418228314313</v>
+        <v>1.028237177568167</v>
       </c>
       <c r="K19">
-        <v>1.037016264075238</v>
+        <v>1.036425570162854</v>
       </c>
       <c r="L19">
-        <v>1.032538924668247</v>
+        <v>1.032365166864307</v>
       </c>
       <c r="M19">
-        <v>1.04457322693579</v>
+        <v>1.044267206117931</v>
       </c>
       <c r="N19">
-        <v>1.012848882494509</v>
+        <v>1.014373160824473</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044414887551363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.044172850015261</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021887543211695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.998926647374392</v>
+        <v>0.9990277062420049</v>
       </c>
       <c r="D20">
-        <v>1.021614913957981</v>
+        <v>1.021304940765023</v>
       </c>
       <c r="E20">
-        <v>1.016840503564246</v>
+        <v>1.016917911542493</v>
       </c>
       <c r="F20">
-        <v>1.028953526927764</v>
+        <v>1.028872935612162</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045896815894461</v>
+        <v>1.045830539248983</v>
       </c>
       <c r="J20">
-        <v>1.026499007759279</v>
+        <v>1.026596159702079</v>
       </c>
       <c r="K20">
-        <v>1.035288048794722</v>
+        <v>1.034983235104067</v>
       </c>
       <c r="L20">
-        <v>1.03059355842996</v>
+        <v>1.030669662938443</v>
       </c>
       <c r="M20">
-        <v>1.042505677603505</v>
+        <v>1.042426402867713</v>
       </c>
       <c r="N20">
-        <v>1.012083746351818</v>
+        <v>1.013917002230433</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042253482568145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.042190745163296</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021497764131203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9930829144668296</v>
+        <v>0.9938183246399002</v>
       </c>
       <c r="D21">
-        <v>1.017535349771254</v>
+        <v>1.017841857023473</v>
       </c>
       <c r="E21">
-        <v>1.012325045011968</v>
+        <v>1.012951155611992</v>
       </c>
       <c r="F21">
-        <v>1.024797402248428</v>
+        <v>1.02521374379518</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044547586918413</v>
+        <v>1.044764514303852</v>
       </c>
       <c r="J21">
-        <v>1.022872710221758</v>
+        <v>1.023576792224999</v>
       </c>
       <c r="K21">
-        <v>1.032191954601824</v>
+        <v>1.032492914509695</v>
       </c>
       <c r="L21">
-        <v>1.027076618281461</v>
+        <v>1.027691249481094</v>
       </c>
       <c r="M21">
-        <v>1.039323731943936</v>
+        <v>1.039732677256401</v>
       </c>
       <c r="N21">
-        <v>1.010804767654722</v>
+        <v>1.013503751026468</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039694486125494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.040018139210696</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020933871597694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9893677019661588</v>
+        <v>0.9905082970792337</v>
       </c>
       <c r="D22">
-        <v>1.014957983572415</v>
+        <v>1.015658485886167</v>
       </c>
       <c r="E22">
-        <v>1.009475409038657</v>
+        <v>1.010452068513845</v>
       </c>
       <c r="F22">
-        <v>1.022191222570576</v>
+        <v>1.022925520610553</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I22">
-        <v>1.043691681411457</v>
+        <v>1.044089753226806</v>
       </c>
       <c r="J22">
-        <v>1.02058175596727</v>
+        <v>1.021670818427744</v>
       </c>
       <c r="K22">
-        <v>1.030238831858412</v>
+        <v>1.030925998980856</v>
       </c>
       <c r="L22">
-        <v>1.024861464598394</v>
+        <v>1.025819273100301</v>
       </c>
       <c r="M22">
-        <v>1.037335523154975</v>
+        <v>1.038056100161888</v>
       </c>
       <c r="N22">
-        <v>1.010000656527013</v>
+        <v>1.013241618811813</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038120948687609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.038691238738353</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020580265241813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9913455147812436</v>
+        <v>0.992250626115426</v>
       </c>
       <c r="D23">
-        <v>1.016329519248864</v>
+        <v>1.016804196975918</v>
       </c>
       <c r="E23">
-        <v>1.010991577133072</v>
+        <v>1.011764170441634</v>
       </c>
       <c r="F23">
-        <v>1.023577749646832</v>
+        <v>1.024128080651231</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044148218662832</v>
+        <v>1.044441687858605</v>
       </c>
       <c r="J23">
-        <v>1.021801410031056</v>
+        <v>1.022666874890226</v>
       </c>
       <c r="K23">
-        <v>1.031278794668951</v>
+        <v>1.031744673199727</v>
       </c>
       <c r="L23">
-        <v>1.026040546155173</v>
+        <v>1.02679862517035</v>
       </c>
       <c r="M23">
-        <v>1.038393820216923</v>
+        <v>1.038934137680084</v>
       </c>
       <c r="N23">
-        <v>1.010428792096193</v>
+        <v>1.013335490990124</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038958522141503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.039386147975943</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020763502823567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9989524348341624</v>
+        <v>0.9990553616790798</v>
       </c>
       <c r="D24">
-        <v>1.021615816419422</v>
+        <v>1.021307685316875</v>
       </c>
       <c r="E24">
-        <v>1.016841024615809</v>
+        <v>1.016920406094643</v>
       </c>
       <c r="F24">
-        <v>1.028929293019658</v>
+        <v>1.028850278126677</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045884340838293</v>
+        <v>1.045819436473537</v>
       </c>
       <c r="J24">
-        <v>1.026490869638677</v>
+        <v>1.026589823233554</v>
       </c>
       <c r="K24">
-        <v>1.035273677724551</v>
+        <v>1.034970668867203</v>
       </c>
       <c r="L24">
-        <v>1.030578709708721</v>
+        <v>1.030656756206296</v>
       </c>
       <c r="M24">
-        <v>1.042466735378714</v>
+        <v>1.042389009737338</v>
       </c>
       <c r="N24">
-        <v>1.012073919429064</v>
+        <v>1.013906396309427</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042181961103986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.042120446610684</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021490015023916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007436064483297</v>
+        <v>1.006913050505387</v>
       </c>
       <c r="D25">
-        <v>1.02753093042756</v>
+        <v>1.026561630604493</v>
       </c>
       <c r="E25">
-        <v>1.023398687442402</v>
+        <v>1.022937471528446</v>
       </c>
       <c r="F25">
-        <v>1.034932707240262</v>
+        <v>1.034346677847217</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047778153004221</v>
+        <v>1.047418817286608</v>
       </c>
       <c r="J25">
-        <v>1.031715740959316</v>
+        <v>1.031209981844321</v>
       </c>
       <c r="K25">
-        <v>1.039716384865212</v>
+        <v>1.038761143960419</v>
       </c>
       <c r="L25">
-        <v>1.035644311828126</v>
+        <v>1.035189849994883</v>
       </c>
       <c r="M25">
-        <v>1.04701190341196</v>
+        <v>1.046434216786703</v>
       </c>
       <c r="N25">
-        <v>1.013904511642076</v>
+        <v>1.01514022686211</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045779139606972</v>
+        <v>1.045321942550102</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022352924190542</v>
       </c>
     </row>
   </sheetData>
